--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_6_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3297899.538140337</v>
+        <v>3295059.334062369</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8444415.160587981</v>
+        <v>8444421.381715726</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8413609.589731202</v>
+        <v>8413436.381445864</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>173.3244323150252</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>43.99240337009294</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>189.5968436493441</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +896,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>37.94448079992561</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>60.46179076613115</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,28 +1096,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>121.2699779972377</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>86.11456485616236</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>289.2221598733555</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598869</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>9.461970681989216</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>274.4876658745443</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634819</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>74.75769145492355</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1588,13 +1588,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.1846924583708</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>113.5103646250816</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6268892744745</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2017,7 +2017,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,13 +2056,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>121.5845169204567</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2138,7 +2138,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74.7576914549232</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>18.26879610204007</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004739</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.75769145492332</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.769025331442</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761693</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>39.34540819183059</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.0402687184132</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H26" t="n">
-        <v>285.5805435513398</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I26" t="n">
-        <v>7.594561284787801</v>
+        <v>3.03485623114949</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>89.10156188094678</v>
+        <v>86.40642462889353</v>
       </c>
       <c r="T26" t="n">
-        <v>200.0593924064816</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2646,13 +2646,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>134.5278481273042</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H27" t="n">
-        <v>85.04200907392678</v>
+        <v>84.43084369570136</v>
       </c>
       <c r="I27" t="n">
-        <v>2.579389070766553</v>
+        <v>0.4006205789093684</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,13 +2682,13 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>119.3833537044361</v>
+        <v>118.2079289193387</v>
       </c>
       <c r="T27" t="n">
-        <v>188.8156065720235</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U27" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6304170232079</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,22 +2758,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>43.75834354505066</v>
+        <v>68.76846803530526</v>
       </c>
       <c r="S28" t="n">
-        <v>182.8784344308282</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T28" t="n">
-        <v>217.8595503594825</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>20.23175190293</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.0402687184132</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H29" t="n">
-        <v>285.5805435513398</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I29" t="n">
-        <v>7.594561284787801</v>
+        <v>3.03485623114949</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>89.10156188094678</v>
+        <v>86.40642462889353</v>
       </c>
       <c r="T29" t="n">
-        <v>200.0593924064816</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2883,13 +2883,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>134.5278481273042</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H30" t="n">
-        <v>85.04200907392678</v>
+        <v>84.43084369570136</v>
       </c>
       <c r="I30" t="n">
-        <v>2.579389070766553</v>
+        <v>0.4006205789093684</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>119.3833537044361</v>
+        <v>118.2079289193387</v>
       </c>
       <c r="T30" t="n">
-        <v>188.8156065720235</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U30" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2953,22 +2953,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>84.78057099738587</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>82.86647848267941</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>68.76846803530526</v>
       </c>
       <c r="S31" t="n">
-        <v>182.8784344308282</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T31" t="n">
-        <v>217.8595503594825</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>35.66083491074474</v>
       </c>
     </row>
     <row r="32">
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.0402687184132</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H32" t="n">
-        <v>285.5805435513398</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I32" t="n">
-        <v>7.594561284787801</v>
+        <v>3.03485623114949</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>89.10156188094678</v>
+        <v>86.40642462889353</v>
       </c>
       <c r="T32" t="n">
-        <v>200.0593924064816</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9246554040988</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3120,13 +3120,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>134.5278481273042</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H33" t="n">
-        <v>85.04200907392678</v>
+        <v>84.43084369570136</v>
       </c>
       <c r="I33" t="n">
-        <v>2.579389070766553</v>
+        <v>0.4006205789093684</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,13 +3156,13 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>119.3833537044361</v>
+        <v>118.2079289193387</v>
       </c>
       <c r="T33" t="n">
-        <v>188.8156065720235</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U33" t="n">
-        <v>225.7561406970336</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>81.5861460021048</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>136.9350434559183</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>82.86647848267941</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>68.76846803530526</v>
       </c>
       <c r="S34" t="n">
-        <v>182.8784344308282</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T34" t="n">
-        <v>217.8595503594825</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1902714109318</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045443</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>3.03485623114949</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>86.40642462889353</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3357,13 +3357,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.43084369570136</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.4006205789093684</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,13 +3393,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.4255876952162</v>
+        <v>118.2079289193387</v>
       </c>
       <c r="T36" t="n">
-        <v>188.3907690366107</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U36" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3424,10 +3424,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>23.94516103140383</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>82.86647848267941</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>68.76846803530526</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4819944627618</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>37.18580280645399</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.9219961017573</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>3.03485623114949</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>86.40642462889353</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.43084369570136</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.4006205789093684</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.4255876952162</v>
+        <v>118.2079289193387</v>
       </c>
       <c r="T39" t="n">
-        <v>188.3907690366107</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U39" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>23.94516103140364</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>82.86647848267941</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>68.76846803530526</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4819944627618</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>84.98467871468537</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127576</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045443</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>3.03485623114949</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081962</v>
+        <v>86.40642462889353</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374742</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3831,13 +3831,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561455</v>
+        <v>84.43084369570136</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.4006205789093684</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,13 +3867,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.4255876952162</v>
+        <v>118.2079289193387</v>
       </c>
       <c r="T42" t="n">
-        <v>188.3907690366107</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U42" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.31381295098862</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>68.71444903566658</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>68.76846803530526</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.921996101757</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>284.3692841160095</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3.03485623114949</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>86.40642462889353</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.5416540270691</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9151935947663</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4068,13 +4068,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4645666984962</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.43084369570136</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.4006205789093684</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4104,13 +4104,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>118.2079289193387</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.5605380059067</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7519774451384</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>83.77120800369443</v>
       </c>
       <c r="C46" t="n">
-        <v>41.74133133758728</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>68.76846803530526</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.6328692562887</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1873776096144</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1745.334734821698</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2522.073906861631</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2522.073906861631</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2522.073906861631</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2522.073906861631</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2131.93457488582</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4513,25 +4513,25 @@
         <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>683.6922131255325</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X4" t="n">
-        <v>245.4549451025302</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>863.1126181035243</v>
+        <v>979.5885935818919</v>
       </c>
       <c r="C5" t="n">
-        <v>494.1501011631125</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="D5" t="n">
-        <v>135.884402556362</v>
+        <v>941.2608351981287</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>1739.654191907093</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>1366.188433646014</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>1366.188433646014</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>605.6340569364974</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>605.6340569364974</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>350.9495687306105</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="W7" t="n">
-        <v>350.9495687306105</v>
+        <v>463.5809975486215</v>
       </c>
       <c r="X7" t="n">
-        <v>350.9495687306105</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.9495687306105</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1525.746656041709</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1156.784139101298</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>770.9958865030533</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>764.0503857538498</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>346.0865776520367</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018223</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1525.746656041709</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064346</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064346</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064346</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W10" t="n">
-        <v>450.8687156462887</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.8791647482714</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5018,16 +5018,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5042,19 +5042,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542188</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5121,10 +5121,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>409.4810578558177</v>
+        <v>171.0738540998323</v>
       </c>
       <c r="C13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839442</v>
@@ -5206,7 +5206,7 @@
         <v>661.2306482927024</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
         <v>1346.796070598116</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>999.103611420813</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W13" t="n">
-        <v>999.103611420813</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X13" t="n">
-        <v>771.1140605227956</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y13" t="n">
-        <v>591.1295226860574</v>
+        <v>171.0738540998323</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5279,25 +5279,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2337.214217867999</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2883.993034926781</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,64 +5331,64 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5397,10 +5397,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>210.2179684131233</v>
+      </c>
+      <c r="C16" t="n">
+        <v>210.2179684131233</v>
+      </c>
+      <c r="D16" t="n">
+        <v>210.2179684131233</v>
+      </c>
+      <c r="E16" t="n">
+        <v>210.2179684131233</v>
+      </c>
+      <c r="F16" t="n">
+        <v>210.2179684131233</v>
+      </c>
+      <c r="G16" t="n">
         <v>95.56103444839442</v>
       </c>
-      <c r="C16" t="n">
-        <v>95.56103444839438</v>
-      </c>
-      <c r="D16" t="n">
-        <v>95.56103444839432</v>
-      </c>
-      <c r="E16" t="n">
-        <v>95.56103444839428</v>
-      </c>
-      <c r="F16" t="n">
-        <v>95.56103444839428</v>
-      </c>
-      <c r="G16" t="n">
-        <v>95.56103444839428</v>
-      </c>
       <c r="H16" t="n">
-        <v>95.56103444839428</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839428</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953298</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442061</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927021</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952188</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1559.196154437386</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1015.408799357142</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>725.9916293201817</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>498.0020784221643</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>277.2094992786342</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="17">
@@ -5504,37 +5504,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1614.698881814246</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2593.249184644075</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>3573.001456870722</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q17" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5595,10 +5595,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.56103444839442</v>
+        <v>410.7144041584435</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5674,7 +5674,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,7 +5686,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.093287563029</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.408799357142</v>
+        <v>1041.144999030231</v>
       </c>
       <c r="W19" t="n">
-        <v>725.9916293201816</v>
+        <v>1041.144999030231</v>
       </c>
       <c r="X19" t="n">
-        <v>498.0020784221642</v>
+        <v>813.1554481322133</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.2094992786341</v>
+        <v>592.3628689886832</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5729,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5750,25 +5750,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1002.806306216376</v>
+        <v>848.050910509603</v>
       </c>
       <c r="L20" t="n">
-        <v>1453.840519464784</v>
+        <v>1299.085123758012</v>
       </c>
       <c r="M20" t="n">
-        <v>2432.390822294613</v>
+        <v>1832.617028429936</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353395</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q20" t="n">
         <v>4653.975400188666</v>
@@ -5789,7 +5789,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,40 +5805,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193594</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320247</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
         <v>1715.000032008795</v>
@@ -5850,7 +5850,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142068</v>
@@ -5859,7 +5859,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447819</v>
@@ -5868,7 +5868,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282342</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423047</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>260.9043113423047</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F22" t="n">
         <v>95.56103444839442</v>
@@ -5911,10 +5911,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384227</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783401</v>
+        <v>999.1036114208127</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413794</v>
+        <v>709.6864413838522</v>
       </c>
       <c r="X22" t="n">
-        <v>391.8664332433621</v>
+        <v>481.6968904858348</v>
       </c>
       <c r="Y22" t="n">
-        <v>171.073854099832</v>
+        <v>260.9043113423047</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5987,46 +5987,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>818.2062848686776</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1682.725100522032</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2216.257005193957</v>
+        <v>1941.005908766397</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420604</v>
+        <v>2920.758180993044</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322499</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.56103444839442</v>
+        <v>580.1131475839755</v>
       </c>
       <c r="C25" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="D25" t="n">
-        <v>95.56103444839442</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G25" t="n">
         <v>95.56103444839442</v>
@@ -6169,7 +6169,7 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
         <v>1674.827124689058</v>
@@ -6178,19 +6178,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1163.957642384227</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>909.2731541783403</v>
+        <v>909.2731541783407</v>
       </c>
       <c r="W25" t="n">
-        <v>619.8559841413796</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="X25" t="n">
-        <v>391.8664332433622</v>
+        <v>619.8559841413802</v>
       </c>
       <c r="Y25" t="n">
-        <v>171.0738540998321</v>
+        <v>580.1131475839755</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2328.48212442563</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C26" t="n">
-        <v>1959.519607485219</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D26" t="n">
-        <v>1601.253908878468</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E26" t="n">
-        <v>1215.465656280224</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F26" t="n">
-        <v>804.4797514906168</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G26" t="n">
-        <v>390.2976618760572</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H26" t="n">
-        <v>101.8324663696534</v>
+        <v>97.03887490037488</v>
       </c>
       <c r="I26" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J26" t="n">
-        <v>524.51040230896</v>
+        <v>366.8547825927164</v>
       </c>
       <c r="K26" t="n">
-        <v>969.3331573234227</v>
+        <v>826.5718107645509</v>
       </c>
       <c r="L26" t="n">
-        <v>1558.076880695427</v>
+        <v>1433.79319703</v>
       </c>
       <c r="M26" t="n">
-        <v>2244.837149161785</v>
+        <v>2141.113425729796</v>
       </c>
       <c r="N26" t="n">
-        <v>2947.323725136515</v>
+        <v>2864.49264358932</v>
       </c>
       <c r="O26" t="n">
-        <v>3597.326617407973</v>
+        <v>3534.223865147014</v>
       </c>
       <c r="P26" t="n">
-        <v>4117.588046754304</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q26" t="n">
-        <v>4529.167173995941</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R26" t="n">
-        <v>4708.05961723076</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S26" t="n">
-        <v>4618.058039573238</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T26" t="n">
-        <v>4415.977845223257</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U26" t="n">
-        <v>4162.518597340329</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V26" t="n">
-        <v>3831.455709996758</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W26" t="n">
-        <v>3478.687054726644</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X26" t="n">
-        <v>3105.221296465564</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y26" t="n">
-        <v>2715.081964489752</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>947.7138223180867</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C27" t="n">
-        <v>773.2607930369597</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D27" t="n">
-        <v>624.3263833757085</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E27" t="n">
-        <v>465.088928370253</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F27" t="n">
-        <v>318.554370397138</v>
+        <v>315.4845059528571</v>
       </c>
       <c r="G27" t="n">
-        <v>182.6676551170327</v>
+        <v>179.6617113079115</v>
       </c>
       <c r="H27" t="n">
-        <v>96.76663585043998</v>
+        <v>94.37803080720303</v>
       </c>
       <c r="I27" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J27" t="n">
-        <v>231.9507289421376</v>
+        <v>237.6818203523165</v>
       </c>
       <c r="K27" t="n">
-        <v>545.609818506716</v>
+        <v>561.4572872887495</v>
       </c>
       <c r="L27" t="n">
-        <v>782.8429578756605</v>
+        <v>737.956467260888</v>
       </c>
       <c r="M27" t="n">
-        <v>1348.422317811588</v>
+        <v>737.956467260888</v>
       </c>
       <c r="N27" t="n">
-        <v>1943.379525386857</v>
+        <v>1349.207535329234</v>
       </c>
       <c r="O27" t="n">
-        <v>1943.379525386857</v>
+        <v>1886.163049823851</v>
       </c>
       <c r="P27" t="n">
-        <v>2343.03746073281</v>
+        <v>2297.784122796873</v>
       </c>
       <c r="Q27" t="n">
-        <v>2560.279010110498</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R27" t="n">
-        <v>2560.279010110498</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S27" t="n">
-        <v>2439.689763944401</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T27" t="n">
-        <v>2248.966929023165</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U27" t="n">
-        <v>2020.930423268586</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V27" t="n">
-        <v>1785.778315036843</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W27" t="n">
-        <v>1531.540958308641</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X27" t="n">
-        <v>1323.689458103109</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y27" t="n">
-        <v>1115.929159338155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>430.400826811116</v>
+        <v>727.1659960192418</v>
       </c>
       <c r="C28" t="n">
-        <v>261.4646438832091</v>
+        <v>558.2298130913349</v>
       </c>
       <c r="D28" t="n">
-        <v>261.4646438832091</v>
+        <v>408.1131736789991</v>
       </c>
       <c r="E28" t="n">
-        <v>261.4646438832091</v>
+        <v>408.1131736789991</v>
       </c>
       <c r="F28" t="n">
-        <v>261.4646438832091</v>
+        <v>261.2232261810888</v>
       </c>
       <c r="G28" t="n">
-        <v>94.16119234461522</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="H28" t="n">
-        <v>94.16119234461522</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="I28" t="n">
-        <v>94.16119234461522</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="J28" t="n">
-        <v>166.9584435603207</v>
+        <v>170.4839550909369</v>
       </c>
       <c r="K28" t="n">
-        <v>416.4235264532475</v>
+        <v>426.0511968217954</v>
       </c>
       <c r="L28" t="n">
-        <v>791.1793793371896</v>
+        <v>808.6157121185338</v>
       </c>
       <c r="M28" t="n">
-        <v>1196.696004649983</v>
+        <v>1222.365477090361</v>
       </c>
       <c r="N28" t="n">
-        <v>1598.004967408915</v>
+        <v>1631.711813849208</v>
       </c>
       <c r="O28" t="n">
-        <v>1952.662452740134</v>
+        <v>1993.793114956026</v>
       </c>
       <c r="P28" t="n">
-        <v>2232.612518185972</v>
+        <v>2280.095537301696</v>
       </c>
       <c r="Q28" t="n">
-        <v>2343.000352396754</v>
+        <v>2394.881414161631</v>
       </c>
       <c r="R28" t="n">
-        <v>2298.800005381551</v>
+        <v>2325.41831513607</v>
       </c>
       <c r="S28" t="n">
-        <v>2114.07431403728</v>
+        <v>2141.626532398768</v>
       </c>
       <c r="T28" t="n">
-        <v>1894.014162159015</v>
+        <v>1921.795351331809</v>
       </c>
       <c r="U28" t="n">
-        <v>1604.93307992575</v>
+        <v>1632.717192130179</v>
       </c>
       <c r="V28" t="n">
-        <v>1350.248591719863</v>
+        <v>1378.032703924292</v>
       </c>
       <c r="W28" t="n">
-        <v>1060.831421682903</v>
+        <v>1357.596590891029</v>
       </c>
       <c r="X28" t="n">
-        <v>832.8418707848858</v>
+        <v>1129.607039993012</v>
       </c>
       <c r="Y28" t="n">
-        <v>612.0492916413557</v>
+        <v>908.8144608494815</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2328.482124425629</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C29" t="n">
-        <v>1959.519607485218</v>
+        <v>1953.383054347267</v>
       </c>
       <c r="D29" t="n">
-        <v>1601.253908878467</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E29" t="n">
-        <v>1215.465656280223</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F29" t="n">
-        <v>804.4797514906154</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G29" t="n">
-        <v>390.2976618760567</v>
+        <v>384.2805760276572</v>
       </c>
       <c r="H29" t="n">
-        <v>101.8324663696534</v>
+        <v>97.03887490037488</v>
       </c>
       <c r="I29" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J29" t="n">
-        <v>524.51040230896</v>
+        <v>366.8547825927164</v>
       </c>
       <c r="K29" t="n">
-        <v>969.3331573234227</v>
+        <v>826.5718107645509</v>
       </c>
       <c r="L29" t="n">
-        <v>1558.076880695427</v>
+        <v>1433.79319703</v>
       </c>
       <c r="M29" t="n">
-        <v>2244.837149161785</v>
+        <v>2141.113425729796</v>
       </c>
       <c r="N29" t="n">
-        <v>2947.323725136515</v>
+        <v>2864.49264358932</v>
       </c>
       <c r="O29" t="n">
-        <v>3597.326617407973</v>
+        <v>3534.223865147014</v>
       </c>
       <c r="P29" t="n">
-        <v>4117.588046754304</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q29" t="n">
-        <v>4529.167173995941</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R29" t="n">
-        <v>4708.05961723076</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S29" t="n">
-        <v>4618.058039573237</v>
+        <v>4611.38896099211</v>
       </c>
       <c r="T29" t="n">
-        <v>4415.977845223255</v>
+        <v>4409.831734702141</v>
       </c>
       <c r="U29" t="n">
-        <v>4162.518597340328</v>
+        <v>4156.382044202377</v>
       </c>
       <c r="V29" t="n">
-        <v>3831.455709996757</v>
+        <v>3825.319156858806</v>
       </c>
       <c r="W29" t="n">
-        <v>3478.687054726643</v>
+        <v>3472.550501588692</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.221296465563</v>
+        <v>3099.084743327612</v>
       </c>
       <c r="Y29" t="n">
-        <v>2715.081964489751</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>947.7138223180867</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C30" t="n">
-        <v>773.2607930369597</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D30" t="n">
-        <v>624.3263833757085</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E30" t="n">
-        <v>465.088928370253</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F30" t="n">
-        <v>318.554370397138</v>
+        <v>315.4845059528571</v>
       </c>
       <c r="G30" t="n">
-        <v>182.6676551170327</v>
+        <v>179.6617113079115</v>
       </c>
       <c r="H30" t="n">
-        <v>96.76663585043998</v>
+        <v>94.37803080720303</v>
       </c>
       <c r="I30" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J30" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="K30" t="n">
-        <v>94.16119234461519</v>
+        <v>417.7488304922125</v>
       </c>
       <c r="L30" t="n">
-        <v>562.2370873551747</v>
+        <v>899.4274433177397</v>
       </c>
       <c r="M30" t="n">
-        <v>1127.816447291102</v>
+        <v>1480.880533344985</v>
       </c>
       <c r="N30" t="n">
-        <v>1722.773654866371</v>
+        <v>1480.880533344985</v>
       </c>
       <c r="O30" t="n">
-        <v>2244.823470273855</v>
+        <v>1886.163049823851</v>
       </c>
       <c r="P30" t="n">
-        <v>2560.279010110498</v>
+        <v>2297.784122796873</v>
       </c>
       <c r="Q30" t="n">
-        <v>2560.279010110498</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R30" t="n">
-        <v>2560.279010110498</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S30" t="n">
-        <v>2439.689763944401</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T30" t="n">
-        <v>2248.966929023165</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U30" t="n">
-        <v>2020.930423268586</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V30" t="n">
-        <v>1785.778315036843</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W30" t="n">
-        <v>1531.540958308641</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X30" t="n">
-        <v>1323.689458103109</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y30" t="n">
-        <v>1115.929159338155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>474.6011738263185</v>
+        <v>642.9564727946857</v>
       </c>
       <c r="C31" t="n">
-        <v>474.6011738263186</v>
+        <v>642.9564727946857</v>
       </c>
       <c r="D31" t="n">
-        <v>388.9642334249187</v>
+        <v>492.83983338235</v>
       </c>
       <c r="E31" t="n">
-        <v>241.0511398425255</v>
+        <v>344.9267397999569</v>
       </c>
       <c r="F31" t="n">
-        <v>94.16119234461519</v>
+        <v>344.9267397999569</v>
       </c>
       <c r="G31" t="n">
-        <v>94.16119234461519</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="H31" t="n">
-        <v>94.16119234461519</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="I31" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J31" t="n">
-        <v>166.9584435603207</v>
+        <v>170.4839550909368</v>
       </c>
       <c r="K31" t="n">
-        <v>416.4235264532475</v>
+        <v>426.0511968217954</v>
       </c>
       <c r="L31" t="n">
-        <v>791.1793793371896</v>
+        <v>808.6157121185338</v>
       </c>
       <c r="M31" t="n">
-        <v>1196.696004649983</v>
+        <v>1222.365477090361</v>
       </c>
       <c r="N31" t="n">
-        <v>1598.004967408915</v>
+        <v>1631.711813849207</v>
       </c>
       <c r="O31" t="n">
-        <v>1952.662452740134</v>
+        <v>1993.793114956026</v>
       </c>
       <c r="P31" t="n">
-        <v>2232.612518185972</v>
+        <v>2280.095537301696</v>
       </c>
       <c r="Q31" t="n">
-        <v>2343.000352396753</v>
+        <v>2394.881414161631</v>
       </c>
       <c r="R31" t="n">
-        <v>2343.000352396753</v>
+        <v>2325.41831513607</v>
       </c>
       <c r="S31" t="n">
-        <v>2158.274661052483</v>
+        <v>2141.626532398768</v>
       </c>
       <c r="T31" t="n">
-        <v>1938.214509174217</v>
+        <v>1921.79535133181</v>
       </c>
       <c r="U31" t="n">
-        <v>1649.133426940953</v>
+        <v>1632.717192130179</v>
       </c>
       <c r="V31" t="n">
-        <v>1394.448938735066</v>
+        <v>1378.032703924292</v>
       </c>
       <c r="W31" t="n">
-        <v>1105.031768698106</v>
+        <v>1088.615533887331</v>
       </c>
       <c r="X31" t="n">
-        <v>877.0422178000883</v>
+        <v>860.6259829893141</v>
       </c>
       <c r="Y31" t="n">
-        <v>656.2496386565582</v>
+        <v>824.6049376249255</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2328.48212442563</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C32" t="n">
-        <v>1959.519607485219</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D32" t="n">
-        <v>1601.253908878468</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E32" t="n">
-        <v>1215.465656280224</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F32" t="n">
-        <v>804.4797514906168</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G32" t="n">
-        <v>390.2976618760572</v>
+        <v>384.2805760276572</v>
       </c>
       <c r="H32" t="n">
-        <v>101.8324663696534</v>
+        <v>97.03887490037488</v>
       </c>
       <c r="I32" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J32" t="n">
-        <v>524.51040230896</v>
+        <v>366.8547825927164</v>
       </c>
       <c r="K32" t="n">
-        <v>969.3331573234227</v>
+        <v>826.5718107645509</v>
       </c>
       <c r="L32" t="n">
-        <v>1558.076880695427</v>
+        <v>1433.79319703</v>
       </c>
       <c r="M32" t="n">
-        <v>2244.837149161785</v>
+        <v>2141.113425729796</v>
       </c>
       <c r="N32" t="n">
-        <v>2947.323725136515</v>
+        <v>2864.49264358932</v>
       </c>
       <c r="O32" t="n">
-        <v>3597.326617407973</v>
+        <v>3534.223865147014</v>
       </c>
       <c r="P32" t="n">
-        <v>4117.588046754304</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q32" t="n">
-        <v>4529.167173995941</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R32" t="n">
-        <v>4708.05961723076</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S32" t="n">
-        <v>4618.058039573238</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T32" t="n">
-        <v>4415.977845223257</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U32" t="n">
-        <v>4162.518597340329</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V32" t="n">
-        <v>3831.455709996758</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W32" t="n">
-        <v>3478.687054726644</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X32" t="n">
-        <v>3105.221296465564</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y32" t="n">
-        <v>2715.081964489752</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>947.7138223180867</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C33" t="n">
-        <v>773.2607930369597</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D33" t="n">
-        <v>624.3263833757085</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E33" t="n">
-        <v>465.088928370253</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F33" t="n">
-        <v>318.554370397138</v>
+        <v>315.4845059528571</v>
       </c>
       <c r="G33" t="n">
-        <v>182.6676551170327</v>
+        <v>179.6617113079115</v>
       </c>
       <c r="H33" t="n">
-        <v>96.76663585043998</v>
+        <v>94.37803080720303</v>
       </c>
       <c r="I33" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J33" t="n">
-        <v>231.9507289421376</v>
+        <v>237.6818203523165</v>
       </c>
       <c r="K33" t="n">
-        <v>545.609818506716</v>
+        <v>561.4572872887495</v>
       </c>
       <c r="L33" t="n">
-        <v>1013.685713517276</v>
+        <v>561.4572872887495</v>
       </c>
       <c r="M33" t="n">
-        <v>1579.265073453203</v>
+        <v>737.956467260888</v>
       </c>
       <c r="N33" t="n">
-        <v>2174.222281028472</v>
+        <v>1349.207535329234</v>
       </c>
       <c r="O33" t="n">
-        <v>2560.279010110498</v>
+        <v>1886.163049823851</v>
       </c>
       <c r="P33" t="n">
-        <v>2560.279010110498</v>
+        <v>2297.784122796873</v>
       </c>
       <c r="Q33" t="n">
-        <v>2560.279010110498</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R33" t="n">
-        <v>2560.279010110498</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S33" t="n">
-        <v>2439.689763944401</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T33" t="n">
-        <v>2248.966929023165</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U33" t="n">
-        <v>2020.930423268586</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V33" t="n">
-        <v>1785.778315036843</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W33" t="n">
-        <v>1531.540958308641</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X33" t="n">
-        <v>1323.689458103109</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y33" t="n">
-        <v>1115.929159338155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>474.6011738263186</v>
+        <v>458.1849390155442</v>
       </c>
       <c r="C34" t="n">
-        <v>392.1909253393441</v>
+        <v>458.1849390155442</v>
       </c>
       <c r="D34" t="n">
-        <v>242.0742859270083</v>
+        <v>458.1849390155442</v>
       </c>
       <c r="E34" t="n">
-        <v>94.16119234461519</v>
+        <v>458.1849390155442</v>
       </c>
       <c r="F34" t="n">
-        <v>94.16119234461519</v>
+        <v>319.8667133024956</v>
       </c>
       <c r="G34" t="n">
-        <v>94.16119234461519</v>
+        <v>319.8667133024956</v>
       </c>
       <c r="H34" t="n">
-        <v>94.16119234461519</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="I34" t="n">
-        <v>94.16119234461519</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J34" t="n">
-        <v>166.9584435603207</v>
+        <v>170.4839550909369</v>
       </c>
       <c r="K34" t="n">
-        <v>416.4235264532475</v>
+        <v>426.0511968217955</v>
       </c>
       <c r="L34" t="n">
-        <v>791.1793793371896</v>
+        <v>808.6157121185339</v>
       </c>
       <c r="M34" t="n">
-        <v>1196.696004649983</v>
+        <v>1222.365477090361</v>
       </c>
       <c r="N34" t="n">
-        <v>1598.004967408915</v>
+        <v>1631.711813849208</v>
       </c>
       <c r="O34" t="n">
-        <v>1952.662452740134</v>
+        <v>1993.793114956026</v>
       </c>
       <c r="P34" t="n">
-        <v>2232.612518185972</v>
+        <v>2280.095537301696</v>
       </c>
       <c r="Q34" t="n">
-        <v>2343.000352396753</v>
+        <v>2394.881414161631</v>
       </c>
       <c r="R34" t="n">
-        <v>2343.000352396753</v>
+        <v>2325.41831513607</v>
       </c>
       <c r="S34" t="n">
-        <v>2158.274661052483</v>
+        <v>2141.626532398768</v>
       </c>
       <c r="T34" t="n">
-        <v>1938.214509174218</v>
+        <v>1921.79535133181</v>
       </c>
       <c r="U34" t="n">
-        <v>1649.133426940953</v>
+        <v>1632.717192130179</v>
       </c>
       <c r="V34" t="n">
-        <v>1394.448938735066</v>
+        <v>1378.032703924292</v>
       </c>
       <c r="W34" t="n">
-        <v>1105.031768698106</v>
+        <v>1088.615533887331</v>
       </c>
       <c r="X34" t="n">
-        <v>877.0422178000885</v>
+        <v>860.625982989314</v>
       </c>
       <c r="Y34" t="n">
-        <v>656.2496386565583</v>
+        <v>639.8334038457839</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963564</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>384.2805760276572</v>
       </c>
       <c r="H35" t="n">
-        <v>93.848348151607</v>
+        <v>97.03887490037488</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>366.8547825927164</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>826.5718107645509</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1433.79319703</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2141.113425729796</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2864.49264358932</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.64596425946</v>
+        <v>3620.155173824397</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946808</v>
+        <v>4157.254275785502</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052815</v>
+        <v>4512.420586720684</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.9501443472</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.740996026519</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746068</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402498</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132383</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6608414294086</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C36" t="n">
-        <v>769.2078121482816</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2734024870304</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0359474815749</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F36" t="n">
-        <v>314.5013895084599</v>
+        <v>315.4845059528571</v>
       </c>
       <c r="G36" t="n">
-        <v>178.7211392683894</v>
+        <v>179.6617113079115</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>94.37803080720303</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J36" t="n">
-        <v>241.496329903453</v>
+        <v>237.6818203523165</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>256.2778544353607</v>
       </c>
       <c r="L36" t="n">
-        <v>572.0050724668117</v>
+        <v>737.956467260888</v>
       </c>
       <c r="M36" t="n">
-        <v>1164.023426718939</v>
+        <v>737.956467260888</v>
       </c>
       <c r="N36" t="n">
-        <v>1786.119390118276</v>
+        <v>1349.207535329234</v>
       </c>
       <c r="O36" t="n">
-        <v>2332.99586511847</v>
+        <v>1886.163049823851</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2297.784122796873</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.812354695766</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.200649953124</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.906943855537</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.877442379908</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.725334148165</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.487977419963</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.63647721443</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.876178449477</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.9550599890986</v>
+        <v>641.4161011828579</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7680286442462</v>
+        <v>472.479918254951</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6513892319105</v>
+        <v>472.479918254951</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7382956495174</v>
+        <v>324.5668246725579</v>
       </c>
       <c r="F37" t="n">
-        <v>93.84834815160703</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160703</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160703</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>170.4839550909368</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117246</v>
+        <v>426.0511968217953</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948584</v>
+        <v>808.6157121185338</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139318</v>
+        <v>1222.365477090361</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.146473931025</v>
+        <v>1631.711813849207</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946054</v>
+        <v>1993.793114956026</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782259</v>
+        <v>2280.095537301695</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335694</v>
+        <v>2394.881414161631</v>
       </c>
       <c r="R37" t="n">
-        <v>2429.412499335694</v>
+        <v>2325.41831513607</v>
       </c>
       <c r="S37" t="n">
-        <v>2246.242309074624</v>
+        <v>2141.626532398768</v>
       </c>
       <c r="T37" t="n">
-        <v>2026.563526789006</v>
+        <v>1921.795351331809</v>
       </c>
       <c r="U37" t="n">
-        <v>1737.487313103733</v>
+        <v>1632.717192130179</v>
       </c>
       <c r="V37" t="n">
-        <v>1482.802824897847</v>
+        <v>1378.032703924292</v>
       </c>
       <c r="W37" t="n">
-        <v>1193.385654860886</v>
+        <v>1088.615533887331</v>
       </c>
       <c r="X37" t="n">
-        <v>965.3961039628684</v>
+        <v>860.6259829893138</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.6035248193383</v>
+        <v>823.0645660130976</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1953.383054347267</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E38" t="n">
-        <v>1205.244725685964</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>798.3431983526646</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>384.2805760276572</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>97.03887490037488</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>366.8547825927164</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>826.5718107645509</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944177</v>
+        <v>1433.79319703</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883215</v>
+        <v>2141.113425729796</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2864.49264358932</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3534.223865147014</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4071.322967108119</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580351</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.9501443472</v>
+        <v>4611.38896099211</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.740996026519</v>
+        <v>4409.831734702141</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746068</v>
+        <v>4156.382044202377</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402497</v>
+        <v>3825.319156858806</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132383</v>
+        <v>3472.550501588692</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871303</v>
+        <v>3099.084743327612</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895491</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6608414294086</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C39" t="n">
-        <v>769.2078121482816</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2734024870304</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0359474815749</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F39" t="n">
-        <v>314.5013895084599</v>
+        <v>315.4845059528571</v>
       </c>
       <c r="G39" t="n">
-        <v>178.7211392683894</v>
+        <v>179.6617113079115</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160703</v>
+        <v>94.37803080720303</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J39" t="n">
-        <v>142.676769632785</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="K39" t="n">
-        <v>142.676769632785</v>
+        <v>417.7488304922125</v>
       </c>
       <c r="L39" t="n">
-        <v>142.676769632785</v>
+        <v>899.4274433177397</v>
       </c>
       <c r="M39" t="n">
-        <v>734.6951238849127</v>
+        <v>995.9323420462832</v>
       </c>
       <c r="N39" t="n">
-        <v>1356.791087284249</v>
+        <v>1607.183410114629</v>
       </c>
       <c r="O39" t="n">
-        <v>1903.667562284443</v>
+        <v>2144.138924609246</v>
       </c>
       <c r="P39" t="n">
-        <v>2323.251080710519</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.812354695766</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S39" t="n">
-        <v>2435.200649953124</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.906943855537</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.877442379908</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.725334148165</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.487977419963</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.63647721443</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.876178449477</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>562.955059989099</v>
+        <v>784.1231628380509</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7680286442462</v>
+        <v>784.1231628380509</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6513892319105</v>
+        <v>634.0065234257152</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7382956495174</v>
+        <v>634.0065234257152</v>
       </c>
       <c r="F40" t="n">
-        <v>93.84834815160703</v>
+        <v>487.1165759278048</v>
       </c>
       <c r="G40" t="n">
-        <v>93.84834815160703</v>
+        <v>319.8667133024955</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>177.6768771746475</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411609</v>
+        <v>170.4839550909368</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117247</v>
+        <v>426.0511968217953</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948589</v>
+        <v>808.6157121185335</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1222.365477090361</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1631.711813849207</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>1993.793114956026</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2280.095537301695</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2394.881414161631</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335695</v>
+        <v>2325.41831513607</v>
       </c>
       <c r="S40" t="n">
-        <v>2246.242309074625</v>
+        <v>2325.41831513607</v>
       </c>
       <c r="T40" t="n">
-        <v>2026.563526789007</v>
+        <v>2105.587134069111</v>
       </c>
       <c r="U40" t="n">
-        <v>1737.487313103734</v>
+        <v>1816.508974867481</v>
       </c>
       <c r="V40" t="n">
-        <v>1482.802824897847</v>
+        <v>1561.824486661594</v>
       </c>
       <c r="W40" t="n">
-        <v>1193.385654860886</v>
+        <v>1272.407316624634</v>
       </c>
       <c r="X40" t="n">
-        <v>965.3961039628689</v>
+        <v>1186.564206811821</v>
       </c>
       <c r="Y40" t="n">
-        <v>744.6035248193388</v>
+        <v>965.7716276682905</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.26119383137</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284208</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685964</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963564</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>384.2805760276569</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>97.03887490037488</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J41" t="n">
-        <v>424.1437450015196</v>
+        <v>366.8547825927164</v>
       </c>
       <c r="K41" t="n">
-        <v>893.7741287892015</v>
+        <v>826.5718107645509</v>
       </c>
       <c r="L41" t="n">
-        <v>1513.293909294976</v>
+        <v>1433.79319703</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234014</v>
+        <v>2141.113425729796</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.58344915112</v>
+        <v>2864.49264358932</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610258</v>
+        <v>3534.223865147014</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4071.322967108119</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.740996026519</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402497</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132383</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871303</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895492</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.6608414294086</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C42" t="n">
-        <v>769.2078121482816</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D42" t="n">
-        <v>620.2734024870304</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E42" t="n">
-        <v>461.0359474815749</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F42" t="n">
-        <v>314.5013895084599</v>
+        <v>315.4845059528571</v>
       </c>
       <c r="G42" t="n">
-        <v>178.7211392683894</v>
+        <v>179.6617113079115</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160703</v>
+        <v>94.37803080720303</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="K42" t="n">
-        <v>424.3570907149658</v>
+        <v>311.6844274473783</v>
       </c>
       <c r="L42" t="n">
-        <v>915.0894235587172</v>
+        <v>793.3630402729056</v>
       </c>
       <c r="M42" t="n">
-        <v>915.0894235587172</v>
+        <v>1374.816130300151</v>
       </c>
       <c r="N42" t="n">
-        <v>1356.791087284249</v>
+        <v>1986.067198368497</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284443</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710519</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.812354695766</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.200649953124</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.906943855537</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U42" t="n">
-        <v>2016.877442379908</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V42" t="n">
-        <v>1781.725334148165</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W42" t="n">
-        <v>1527.487977419963</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.63647721443</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y42" t="n">
-        <v>1111.876178449477</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9550599890989</v>
+        <v>458.184939015544</v>
       </c>
       <c r="C43" t="n">
-        <v>394.018877061192</v>
+        <v>458.184939015544</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6513892319105</v>
+        <v>458.184939015544</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7382956495174</v>
+        <v>310.2718454331509</v>
       </c>
       <c r="F43" t="n">
-        <v>93.84834815160703</v>
+        <v>163.3818979352406</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160703</v>
+        <v>163.3818979352406</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>170.4839550909369</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117246</v>
+        <v>426.0511968217954</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948589</v>
+        <v>808.6157121185338</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139318</v>
+        <v>1222.365477090361</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931025</v>
+        <v>1631.711813849208</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946055</v>
+        <v>1993.793114956026</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782259</v>
+        <v>2280.095537301696</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335694</v>
+        <v>2394.881414161631</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335694</v>
+        <v>2325.41831513607</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074624</v>
+        <v>2141.626532398768</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789006</v>
+        <v>1921.795351331809</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103733</v>
+        <v>1632.717192130179</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897847</v>
+        <v>1378.032703924292</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860886</v>
+        <v>1088.615533887331</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628688</v>
+        <v>860.6259829893139</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193386</v>
+        <v>639.8334038457838</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2322.345571287678</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1953.383054347266</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1595.117355740516</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1209.329103142272</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>798.3431983526643</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399035</v>
+        <v>384.2805760276572</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160703</v>
+        <v>97.03887490037488</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556113</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148067</v>
+        <v>366.8547825927164</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112157</v>
+        <v>826.5718107645509</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1433.79319703</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2141.113425729796</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>3015.483207940955</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3685.214429498649</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4222.313531459754</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4577.479842394936</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4698.668177788972</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4611.388960992109</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4409.83173470214</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4156.382044202376</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3825.319156858805</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3472.550501588691</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3099.084743327611</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2708.9454113518</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>944.6439578738058</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>770.1909285926788</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>621.2565189314275</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>462.0190639259721</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>315.4845059528571</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>179.6617113079115</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160703</v>
+        <v>94.37803080720303</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577943</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4949906792617</v>
+        <v>237.6818203523165</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4949906792617</v>
+        <v>561.4572872887495</v>
       </c>
       <c r="L45" t="n">
-        <v>738.8205968950203</v>
+        <v>767.7544453019888</v>
       </c>
       <c r="M45" t="n">
-        <v>738.8205968950203</v>
+        <v>1349.207535329234</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.298433055173</v>
+        <v>1349.207535329234</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.20816329446</v>
+        <v>1886.163049823851</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.831312789528</v>
+        <v>2297.784122796873</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2523.022712863114</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2555.759997582268</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2436.358049178896</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2245.892859273939</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2017.860558824305</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1782.708450592562</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1528.47109386436</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1320.619593658828</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1112.859294893874</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.9309895913041</v>
+        <v>555.2160220238701</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7680286442462</v>
+        <v>386.2798390959632</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6513892319105</v>
+        <v>236.1631996836275</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7382956495174</v>
+        <v>236.1631996836275</v>
       </c>
       <c r="F46" t="n">
-        <v>93.84834815160703</v>
+        <v>236.1631996836275</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160703</v>
+        <v>236.1631996836275</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160703</v>
+        <v>93.97336355577944</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>170.4839550909368</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074696</v>
+        <v>426.0511968217953</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834097</v>
+        <v>808.6157121185336</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1222.365477090361</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674453</v>
+        <v>1631.711813849207</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383438</v>
+        <v>1993.793114956026</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2280.095537301695</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683895</v>
+        <v>2394.881414161631</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.994768683895</v>
+        <v>2325.41831513607</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.1399343388</v>
+        <v>2141.626532398768</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.538469361741</v>
+        <v>1921.795351331809</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.463242705939</v>
+        <v>1632.717192130179</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.778754500052</v>
+        <v>1378.032703924292</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.361584463091</v>
+        <v>1088.615533887331</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3720335650739</v>
+        <v>860.6259829893138</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5794544215438</v>
+        <v>639.8334038457837</v>
       </c>
     </row>
   </sheetData>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747117</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476838</v>
+        <v>135.6385654278963</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8927,28 +8927,28 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400255</v>
+        <v>96.13798426930725</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>226.7688596193112</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>219.3344627260164</v>
+        <v>232.1124963760977</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>172.4995987156004</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9890,13 +9890,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>152.5157215673079</v>
       </c>
       <c r="Q26" t="n">
-        <v>69.75475476572575</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10127,13 +10127,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>152.5157215673079</v>
       </c>
       <c r="Q29" t="n">
-        <v>69.75475476572575</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>152.5157215673079</v>
       </c>
       <c r="Q32" t="n">
-        <v>69.75475476572575</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>86.79930169432578</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.312647829089</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>152.515721567308</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11078,7 +11078,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>152.515721567308</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>152.5157215673081</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>92.48912964370429</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,10 +23428,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>40.39996089372397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590283</v>
+        <v>52.51544363394667</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>16.14213605696744</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23905,7 +23905,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>16.14213605696643</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>130.5531264033714</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.0742887270141</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>130.3466769161723</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590283</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.074288727014</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590283</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983813</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>179.2392451602642</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>141.2396273813003</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I28" t="n">
-        <v>84.46192760898774</v>
+        <v>82.86647848267941</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>27.3955813762041</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>266.291246433661</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>63.8349020208265</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.6304170232079</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.2396273813003</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I31" t="n">
-        <v>84.46192760898774</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>71.15392492125476</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>182.9238184413501</v>
       </c>
     </row>
     <row r="32">
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>85.66067509652304</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>8.486004567012913</v>
       </c>
       <c r="G34" t="n">
-        <v>165.6304170232079</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H34" t="n">
-        <v>141.2396273813003</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>84.46192760898774</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>71.15392492125476</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>143.301660067224</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>140.7679377665695</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>181.3988505456408</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>143.3016600672242</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.9538649099295</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>140.7249766743518</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>143.3016600672237</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>72.05348873090293</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>82.86647848267941</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>96.06077217824287</v>
       </c>
       <c r="C46" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5773639990562</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>82.86647848267941</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>715719.8211196326</v>
+        <v>715719.8211196325</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>715719.8211196325</v>
+        <v>715719.8211196326</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>711142.8318105245</v>
+        <v>710528.6980049168</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>711142.8318105245</v>
+        <v>710528.6980049168</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>711142.8318105245</v>
+        <v>710528.6980049168</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>710119.9417838928</v>
+        <v>710528.6980049168</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>710119.9417838928</v>
+        <v>710528.6980049168</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>710119.9417838928</v>
+        <v>710528.6980049168</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>709912.9385188294</v>
+        <v>710528.6980049168</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>718411.5486312479</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="C2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312475</v>
+        <v>718411.5486312482</v>
       </c>
       <c r="E2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.1270522209</v>
       </c>
       <c r="F2" t="n">
-        <v>694893.1270522209</v>
+        <v>694893.1270522205</v>
       </c>
       <c r="G2" t="n">
-        <v>694893.1270522207</v>
+        <v>694893.1270522206</v>
       </c>
       <c r="H2" t="n">
         <v>694893.1270522206</v>
@@ -26335,25 +26335,25 @@
         <v>694893.1270522206</v>
       </c>
       <c r="J2" t="n">
-        <v>703846.6286101096</v>
+        <v>705047.996499329</v>
       </c>
       <c r="K2" t="n">
-        <v>703846.6286101096</v>
+        <v>705047.9964993288</v>
       </c>
       <c r="L2" t="n">
-        <v>703846.6286101096</v>
+        <v>705047.996499329</v>
       </c>
       <c r="M2" t="n">
-        <v>705847.6049787395</v>
+        <v>705047.9964993293</v>
       </c>
       <c r="N2" t="n">
-        <v>705847.6049787394</v>
+        <v>705047.9964993291</v>
       </c>
       <c r="O2" t="n">
-        <v>705847.6049787395</v>
+        <v>705047.9964993289</v>
       </c>
       <c r="P2" t="n">
-        <v>706253.2747287554</v>
+        <v>705047.9964993288</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>334053.3250733749</v>
+        <v>355203.9046935397</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>163129.4787408575</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="C4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>21619.60799709181</v>
+        <v>21619.60799709187</v>
       </c>
       <c r="F4" t="n">
+        <v>21619.60799709185</v>
+      </c>
+      <c r="G4" t="n">
         <v>21619.60799709188</v>
-      </c>
-      <c r="G4" t="n">
-        <v>21619.60799709187</v>
       </c>
       <c r="H4" t="n">
         <v>21619.60799709185</v>
       </c>
       <c r="I4" t="n">
-        <v>21619.60799709187</v>
+        <v>21619.60799709186</v>
       </c>
       <c r="J4" t="n">
-        <v>8092.872670013765</v>
+        <v>6277.876132421176</v>
       </c>
       <c r="K4" t="n">
-        <v>8092.872670013765</v>
+        <v>6277.876132421172</v>
       </c>
       <c r="L4" t="n">
-        <v>8092.872670013765</v>
+        <v>6277.876132421176</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.915760662893</v>
+        <v>6277.876132421181</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662903</v>
+        <v>6277.876132421165</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662911</v>
+        <v>6277.876132421178</v>
       </c>
       <c r="P4" t="n">
-        <v>4457.648636658128</v>
+        <v>6277.87613242118</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>100099.5588493308</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="K5" t="n">
-        <v>100099.5588493308</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="L5" t="n">
-        <v>100099.5588493308</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572385</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100598.1718017881</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100598.1718017881</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-146622.0050391358</v>
+        <v>-146622.0050391356</v>
       </c>
       <c r="C6" t="n">
+        <v>443345.8741754089</v>
+      </c>
+      <c r="D6" t="n">
         <v>443345.874175409</v>
       </c>
-      <c r="D6" t="n">
-        <v>443345.8741754082</v>
-      </c>
       <c r="E6" t="n">
-        <v>-150487.4131919913</v>
+        <v>-150554.6086822173</v>
       </c>
       <c r="F6" t="n">
-        <v>576890.0008014154</v>
+        <v>576822.8053111893</v>
       </c>
       <c r="G6" t="n">
-        <v>576890.0008014153</v>
+        <v>576822.8053111894</v>
       </c>
       <c r="H6" t="n">
-        <v>576890.0008014152</v>
+        <v>576822.8053111894</v>
       </c>
       <c r="I6" t="n">
-        <v>576890.0008014152</v>
+        <v>576822.8053111894</v>
       </c>
       <c r="J6" t="n">
-        <v>261600.8720173901</v>
+        <v>242929.8622940602</v>
       </c>
       <c r="K6" t="n">
-        <v>595654.197090765</v>
+        <v>598133.7669875998</v>
       </c>
       <c r="L6" t="n">
-        <v>595654.197090765</v>
+        <v>598133.7669876</v>
       </c>
       <c r="M6" t="n">
-        <v>436718.1710199806</v>
+        <v>468491.4521486555</v>
       </c>
       <c r="N6" t="n">
-        <v>599847.649760838</v>
+        <v>598133.7669876001</v>
       </c>
       <c r="O6" t="n">
-        <v>599847.6497608381</v>
+        <v>598133.7669875999</v>
       </c>
       <c r="P6" t="n">
-        <v>594036.8830144748</v>
+        <v>598133.7669875998</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,25 +26759,25 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1309.039113184553</v>
+        <v>1338.459426577784</v>
       </c>
       <c r="K3" t="n">
-        <v>1309.039113184553</v>
+        <v>1338.459426577784</v>
       </c>
       <c r="L3" t="n">
-        <v>1309.039113184553</v>
+        <v>1338.459426577784</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716386</v>
+        <v>1338.459426577784</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1338.459426577784</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1338.459426577784</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1338.459426577784</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26811,25 +26811,25 @@
         <v>1194.51293060493</v>
       </c>
       <c r="J4" t="n">
-        <v>1177.01490430769</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="K4" t="n">
-        <v>1177.01490430769</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="L4" t="n">
-        <v>1177.01490430769</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="M4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="N4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="O4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
       <c r="P4" t="n">
-        <v>1173.104351895088</v>
+        <v>1174.667044447243</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762115</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>219.262412591255</v>
+        <v>248.6827259844858</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>49.00193553183249</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>656.7892464573151</v>
+        <v>654.4413865968681</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>516.3151054377724</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>77.89973519326406</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27585,25 +27585,25 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>168.153135579926</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.98780970275067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27616,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>327.328410971082</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>321.4685793061306</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>103.7651274608466</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>166.0230784676656</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>34.70061289100164</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27913,10 +27913,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858218</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>202.6835682680297</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>12.03533246204665</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,7 +31841,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
         <v>508.9565619138796</v>
@@ -31856,7 +31856,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
@@ -32093,7 +32093,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987487</v>
@@ -32312,7 +32312,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
@@ -32330,7 +32330,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
@@ -32552,7 +32552,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.262468796721818</v>
+        <v>5.380741413378023</v>
       </c>
       <c r="H26" t="n">
-        <v>53.89425856442734</v>
+        <v>55.10551799975769</v>
       </c>
       <c r="I26" t="n">
-        <v>202.8813282856181</v>
+        <v>207.4410333392564</v>
       </c>
       <c r="J26" t="n">
-        <v>446.6454610357688</v>
+        <v>456.6837015336934</v>
       </c>
       <c r="K26" t="n">
-        <v>669.4057652010035</v>
+        <v>684.4504855619851</v>
       </c>
       <c r="L26" t="n">
-        <v>830.4570446386791</v>
+        <v>849.121350591653</v>
       </c>
       <c r="M26" t="n">
-        <v>924.0434741023806</v>
+        <v>944.8111107018144</v>
       </c>
       <c r="N26" t="n">
-        <v>938.9954635710666</v>
+        <v>960.0991422425748</v>
       </c>
       <c r="O26" t="n">
-        <v>886.666789473664</v>
+        <v>906.5943948132971</v>
       </c>
       <c r="P26" t="n">
-        <v>756.749591054594</v>
+        <v>773.757341170527</v>
       </c>
       <c r="Q26" t="n">
-        <v>568.2874272719937</v>
+        <v>581.0595393039264</v>
       </c>
       <c r="R26" t="n">
-        <v>330.5685555520772</v>
+        <v>337.9979978081075</v>
       </c>
       <c r="S26" t="n">
-        <v>119.9185077052986</v>
+        <v>122.6136449573518</v>
       </c>
       <c r="T26" t="n">
-        <v>23.03645715764977</v>
+        <v>23.55419553706231</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4209975037377454</v>
+        <v>0.4304593130702417</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.815669035906398</v>
+        <v>2.878950464714479</v>
       </c>
       <c r="H27" t="n">
-        <v>27.19343516256969</v>
+        <v>27.80460054079511</v>
       </c>
       <c r="I27" t="n">
-        <v>96.94299092923345</v>
+        <v>99.12175942109063</v>
       </c>
       <c r="J27" t="n">
-        <v>266.0189767651742</v>
+        <v>271.9976840369062</v>
       </c>
       <c r="K27" t="n">
-        <v>454.6688021709029</v>
+        <v>464.8873651727762</v>
       </c>
       <c r="L27" t="n">
-        <v>378.1838134858788</v>
+        <v>316.8363797517312</v>
       </c>
       <c r="M27" t="n">
-        <v>713.4263166855815</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>732.308588421989</v>
+        <v>748.7670333644908</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>684.9755520147647</v>
       </c>
       <c r="P27" t="n">
-        <v>537.6692916021613</v>
+        <v>549.7532690032413</v>
       </c>
       <c r="Q27" t="n">
-        <v>359.4176825483325</v>
+        <v>367.4955014256588</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267464</v>
       </c>
       <c r="S27" t="n">
-        <v>52.2998173994017</v>
+        <v>53.47524218449917</v>
       </c>
       <c r="T27" t="n">
-        <v>11.34912212279815</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1852413839412105</v>
+        <v>0.189404635836479</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.360562335250834</v>
+        <v>2.413615359402561</v>
       </c>
       <c r="H28" t="n">
-        <v>20.98754512613925</v>
+        <v>21.45923474087006</v>
       </c>
       <c r="I28" t="n">
-        <v>70.98854731827055</v>
+        <v>72.58399644457887</v>
       </c>
       <c r="J28" t="n">
-        <v>166.8917571022339</v>
+        <v>170.6426059097611</v>
       </c>
       <c r="K28" t="n">
-        <v>274.2544240409604</v>
+        <v>280.4182208469521</v>
       </c>
       <c r="L28" t="n">
-        <v>350.9512402790194</v>
+        <v>358.8387780697227</v>
       </c>
       <c r="M28" t="n">
-        <v>370.0288758793647</v>
+        <v>378.3451785652578</v>
       </c>
       <c r="N28" t="n">
-        <v>361.2304162661574</v>
+        <v>369.3489758620304</v>
       </c>
       <c r="O28" t="n">
-        <v>333.6547562589089</v>
+        <v>341.1535600726458</v>
       </c>
       <c r="P28" t="n">
-        <v>285.4992846197916</v>
+        <v>291.9158067408333</v>
       </c>
       <c r="Q28" t="n">
-        <v>197.6649060908676</v>
+        <v>202.1073734132454</v>
       </c>
       <c r="R28" t="n">
-        <v>106.1394664559147</v>
+        <v>108.5249233418642</v>
       </c>
       <c r="S28" t="n">
-        <v>41.13816360614406</v>
+        <v>42.0627331270428</v>
       </c>
       <c r="T28" t="n">
-        <v>10.08603906879901</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1316517468765035</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.262468796721818</v>
+        <v>5.380741413378023</v>
       </c>
       <c r="H29" t="n">
-        <v>53.89425856442734</v>
+        <v>55.10551799975769</v>
       </c>
       <c r="I29" t="n">
-        <v>202.8813282856181</v>
+        <v>207.4410333392564</v>
       </c>
       <c r="J29" t="n">
-        <v>446.6454610357688</v>
+        <v>456.6837015336934</v>
       </c>
       <c r="K29" t="n">
-        <v>669.4057652010035</v>
+        <v>684.4504855619851</v>
       </c>
       <c r="L29" t="n">
-        <v>830.4570446386791</v>
+        <v>849.121350591653</v>
       </c>
       <c r="M29" t="n">
-        <v>924.0434741023806</v>
+        <v>944.8111107018144</v>
       </c>
       <c r="N29" t="n">
-        <v>938.9954635710666</v>
+        <v>960.0991422425748</v>
       </c>
       <c r="O29" t="n">
-        <v>886.666789473664</v>
+        <v>906.5943948132971</v>
       </c>
       <c r="P29" t="n">
-        <v>756.749591054594</v>
+        <v>773.757341170527</v>
       </c>
       <c r="Q29" t="n">
-        <v>568.2874272719937</v>
+        <v>581.0595393039264</v>
       </c>
       <c r="R29" t="n">
-        <v>330.5685555520772</v>
+        <v>337.9979978081075</v>
       </c>
       <c r="S29" t="n">
-        <v>119.9185077052986</v>
+        <v>122.6136449573518</v>
       </c>
       <c r="T29" t="n">
-        <v>23.03645715764977</v>
+        <v>23.55419553706231</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4209975037377454</v>
+        <v>0.4304593130702417</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.815669035906398</v>
+        <v>2.878950464714479</v>
       </c>
       <c r="H30" t="n">
-        <v>27.19343516256969</v>
+        <v>27.80460054079511</v>
       </c>
       <c r="I30" t="n">
-        <v>96.94299092923345</v>
+        <v>99.12175942109063</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>464.8873651727762</v>
       </c>
       <c r="L30" t="n">
-        <v>611.3583141339748</v>
+        <v>625.0984331389926</v>
       </c>
       <c r="M30" t="n">
-        <v>713.4263166855815</v>
+        <v>729.4603874848923</v>
       </c>
       <c r="N30" t="n">
-        <v>732.308588421989</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>669.9192903105893</v>
+        <v>551.9725237160262</v>
       </c>
       <c r="P30" t="n">
-        <v>452.6163668452831</v>
+        <v>549.7532690032413</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256588</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267464</v>
       </c>
       <c r="S30" t="n">
-        <v>52.2998173994017</v>
+        <v>53.47524218449917</v>
       </c>
       <c r="T30" t="n">
-        <v>11.34912212279815</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1852413839412105</v>
+        <v>0.189404635836479</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.360562335250834</v>
+        <v>2.413615359402561</v>
       </c>
       <c r="H31" t="n">
-        <v>20.98754512613925</v>
+        <v>21.45923474087006</v>
       </c>
       <c r="I31" t="n">
-        <v>70.98854731827055</v>
+        <v>72.58399644457887</v>
       </c>
       <c r="J31" t="n">
-        <v>166.8917571022339</v>
+        <v>170.6426059097611</v>
       </c>
       <c r="K31" t="n">
-        <v>274.2544240409604</v>
+        <v>280.4182208469521</v>
       </c>
       <c r="L31" t="n">
-        <v>350.9512402790194</v>
+        <v>358.8387780697227</v>
       </c>
       <c r="M31" t="n">
-        <v>370.0288758793647</v>
+        <v>378.3451785652578</v>
       </c>
       <c r="N31" t="n">
-        <v>361.2304162661574</v>
+        <v>369.3489758620304</v>
       </c>
       <c r="O31" t="n">
-        <v>333.6547562589089</v>
+        <v>341.1535600726458</v>
       </c>
       <c r="P31" t="n">
-        <v>285.4992846197916</v>
+        <v>291.9158067408333</v>
       </c>
       <c r="Q31" t="n">
-        <v>197.6649060908676</v>
+        <v>202.1073734132454</v>
       </c>
       <c r="R31" t="n">
-        <v>106.1394664559147</v>
+        <v>108.5249233418642</v>
       </c>
       <c r="S31" t="n">
-        <v>41.13816360614406</v>
+        <v>42.0627331270428</v>
       </c>
       <c r="T31" t="n">
-        <v>10.08603906879901</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1316517468765035</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.262468796721818</v>
+        <v>5.380741413378023</v>
       </c>
       <c r="H32" t="n">
-        <v>53.89425856442734</v>
+        <v>55.10551799975769</v>
       </c>
       <c r="I32" t="n">
-        <v>202.8813282856181</v>
+        <v>207.4410333392564</v>
       </c>
       <c r="J32" t="n">
-        <v>446.6454610357688</v>
+        <v>456.6837015336934</v>
       </c>
       <c r="K32" t="n">
-        <v>669.4057652010035</v>
+        <v>684.4504855619851</v>
       </c>
       <c r="L32" t="n">
-        <v>830.4570446386791</v>
+        <v>849.121350591653</v>
       </c>
       <c r="M32" t="n">
-        <v>924.0434741023806</v>
+        <v>944.8111107018144</v>
       </c>
       <c r="N32" t="n">
-        <v>938.9954635710666</v>
+        <v>960.0991422425748</v>
       </c>
       <c r="O32" t="n">
-        <v>886.666789473664</v>
+        <v>906.5943948132971</v>
       </c>
       <c r="P32" t="n">
-        <v>756.749591054594</v>
+        <v>773.757341170527</v>
       </c>
       <c r="Q32" t="n">
-        <v>568.2874272719937</v>
+        <v>581.0595393039264</v>
       </c>
       <c r="R32" t="n">
-        <v>330.5685555520772</v>
+        <v>337.9979978081075</v>
       </c>
       <c r="S32" t="n">
-        <v>119.9185077052986</v>
+        <v>122.6136449573518</v>
       </c>
       <c r="T32" t="n">
-        <v>23.03645715764977</v>
+        <v>23.55419553706231</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4209975037377454</v>
+        <v>0.4304593130702417</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.815669035906398</v>
+        <v>2.878950464714479</v>
       </c>
       <c r="H33" t="n">
-        <v>27.19343516256969</v>
+        <v>27.80460054079511</v>
       </c>
       <c r="I33" t="n">
-        <v>96.94299092923345</v>
+        <v>99.12175942109063</v>
       </c>
       <c r="J33" t="n">
-        <v>266.0189767651742</v>
+        <v>271.9976840369062</v>
       </c>
       <c r="K33" t="n">
-        <v>454.6688021709029</v>
+        <v>464.8873651727762</v>
       </c>
       <c r="L33" t="n">
-        <v>611.3583141339748</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>713.4263166855815</v>
+        <v>320.4160338938754</v>
       </c>
       <c r="N33" t="n">
-        <v>732.308588421989</v>
+        <v>748.7670333644908</v>
       </c>
       <c r="O33" t="n">
-        <v>532.5525364464908</v>
+        <v>684.9755520147647</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>549.7532690032413</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256588</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267464</v>
       </c>
       <c r="S33" t="n">
-        <v>52.2998173994017</v>
+        <v>53.47524218449917</v>
       </c>
       <c r="T33" t="n">
-        <v>11.34912212279815</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1852413839412105</v>
+        <v>0.189404635836479</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.360562335250834</v>
+        <v>2.413615359402561</v>
       </c>
       <c r="H34" t="n">
-        <v>20.98754512613925</v>
+        <v>21.45923474087006</v>
       </c>
       <c r="I34" t="n">
-        <v>70.98854731827055</v>
+        <v>72.58399644457887</v>
       </c>
       <c r="J34" t="n">
-        <v>166.8917571022339</v>
+        <v>170.6426059097611</v>
       </c>
       <c r="K34" t="n">
-        <v>274.2544240409604</v>
+        <v>280.4182208469521</v>
       </c>
       <c r="L34" t="n">
-        <v>350.9512402790194</v>
+        <v>358.8387780697227</v>
       </c>
       <c r="M34" t="n">
-        <v>370.0288758793647</v>
+        <v>378.3451785652578</v>
       </c>
       <c r="N34" t="n">
-        <v>361.2304162661574</v>
+        <v>369.3489758620304</v>
       </c>
       <c r="O34" t="n">
-        <v>333.6547562589089</v>
+        <v>341.1535600726458</v>
       </c>
       <c r="P34" t="n">
-        <v>285.4992846197916</v>
+        <v>291.9158067408333</v>
       </c>
       <c r="Q34" t="n">
-        <v>197.6649060908676</v>
+        <v>202.1073734132454</v>
       </c>
       <c r="R34" t="n">
-        <v>106.1394664559147</v>
+        <v>108.5249233418642</v>
       </c>
       <c r="S34" t="n">
-        <v>41.13816360614406</v>
+        <v>42.0627331270428</v>
       </c>
       <c r="T34" t="n">
-        <v>10.08603906879901</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1287579455591365</v>
+        <v>0.1316517468765035</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.380741413378023</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.10551799975769</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>207.4410333392564</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>456.6837015336934</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>684.4504855619851</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>849.121350591653</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>944.8111107018144</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>960.0991422425748</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>906.5943948132971</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>773.757341170527</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>581.0595393039264</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>337.9979978081075</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854257</v>
+        <v>122.6136449573518</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.55419553706231</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4304593130702417</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.878950464714479</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>27.80460054079511</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>99.12175942109063</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>271.9976840369062</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>156.6253117855148</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>625.0984331389926</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>748.7670333644908</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>684.9755520147647</v>
       </c>
       <c r="P36" t="n">
-        <v>357.0213665833166</v>
+        <v>549.7532690032413</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>367.4955014256588</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267464</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>53.47524218449917</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.189404635836479</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.413615359402561</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548567</v>
+        <v>21.45923474087006</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>72.58399644457887</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>170.6426059097611</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>280.4182208469521</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>358.8387780697227</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>378.3451785652578</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>369.3489758620304</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>341.1535600726458</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>291.9158067408333</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561742</v>
+        <v>202.1073734132454</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860859</v>
+        <v>108.5249233418642</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.0627331270428</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551969</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1316517468765035</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.380741413378023</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.10551799975769</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>207.4410333392564</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>456.6837015336934</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>684.4504855619851</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>849.121350591653</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>944.8111107018144</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>960.0991422425748</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>906.5943948132971</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>773.757341170527</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>581.0595393039264</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>337.9979978081075</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>122.6136449573518</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.55419553706231</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4304593130702417</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.878950464714479</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>27.80460054079511</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>99.12175942109063</v>
       </c>
       <c r="J39" t="n">
-        <v>176.1592645264424</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>464.8873651727762</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>625.0984331389926</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>239.6137296074158</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>748.7670333644908</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>684.9755520147647</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>549.7532690032413</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>53.47524218449917</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.189404635836479</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.413615359402561</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.45923474087006</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>72.58399644457887</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>170.6426059097611</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>280.4182208469521</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>358.8387780697227</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>378.3451785652578</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>369.3489758620304</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>341.1535600726458</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>291.9158067408333</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>202.1073734132454</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>108.5249233418642</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.0627331270428</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1316517468765035</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377426</v>
+        <v>5.380741413378023</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122283</v>
+        <v>55.10551799975769</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>207.4410333392564</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874065</v>
+        <v>456.6837015336934</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830431</v>
+        <v>684.4504855619851</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364265</v>
+        <v>849.121350591653</v>
       </c>
       <c r="M41" t="n">
-        <v>958.633669529331</v>
+        <v>944.8111107018144</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229609</v>
+        <v>960.0991422425748</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086953</v>
+        <v>906.5943948132971</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687525</v>
+        <v>773.757341170527</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148607</v>
+        <v>581.0595393039264</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987163</v>
+        <v>337.9979978081075</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854257</v>
+        <v>122.6136449573518</v>
       </c>
       <c r="T41" t="n">
-        <v>23.8987927266572</v>
+        <v>23.55419553706231</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4304593130702417</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540905</v>
+        <v>2.878950464714479</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088191</v>
+        <v>27.80460054079511</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>99.12175942109063</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>471.6886536848224</v>
+        <v>357.7516045214286</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745725</v>
+        <v>625.0984331389926</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>729.4603874848923</v>
       </c>
       <c r="N42" t="n">
-        <v>577.5050087757897</v>
+        <v>748.7670333644908</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>684.9755520147647</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267464</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862161</v>
+        <v>53.47524218449917</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821093</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.189404635836479</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.413615359402561</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548567</v>
+        <v>21.45923474087006</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284927</v>
+        <v>72.58399644457887</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>170.6426059097611</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900886</v>
+        <v>280.4182208469521</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640619</v>
+        <v>358.8387780697227</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265022</v>
+        <v>378.3451785652578</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416875</v>
+        <v>369.3489758620304</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465963</v>
+        <v>341.1535600726458</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282424</v>
+        <v>291.9158067408333</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561742</v>
+        <v>202.1073734132454</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860859</v>
+        <v>108.5249233418642</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851329</v>
+        <v>42.0627331270428</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551969</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1316517468765035</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.380741413378023</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.10551799975769</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>207.4410333392564</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>456.6837015336934</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>684.4504855619851</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>849.121350591653</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>944.8111107018144</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>960.0991422425748</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>906.5943948132971</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>773.757341170527</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>581.0595393039264</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>337.9979978081075</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>122.6136449573518</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.55419553706231</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4304593130702417</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.878950464714479</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>27.80460054079511</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>99.12175942109063</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>271.9976840369062</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>464.8873651727762</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>346.9353474700148</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>729.4603874848923</v>
       </c>
       <c r="N45" t="n">
-        <v>742.935485982477</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>684.9755520147647</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>549.7532690032413</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>367.4955014256588</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>178.7474683267464</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>53.47524218449917</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.60419068891494</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.189404635836479</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.413615359402561</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.45923474087006</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>72.58399644457887</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>170.6426059097611</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>280.4182208469521</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>358.8387780697227</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>378.3451785652578</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>369.3489758620304</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>341.1535600726458</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>291.9158067408333</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>202.1073734132454</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>108.5249233418642</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.0627331270428</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.31272017199276</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1316517468765035</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359029</v>
+        <v>643.6915663161154</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636242</v>
@@ -35489,7 +35489,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
         <v>370.4021821340054</v>
@@ -35504,7 +35504,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35647,28 +35647,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282446</v>
+        <v>604.1909851575264</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127272</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>682.3589740116433</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>556.5257492814169</v>
+        <v>569.3037829314982</v>
       </c>
       <c r="L20" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36200,7 +36200,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789361</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>711.4207145458272</v>
       </c>
       <c r="N23" t="n">
         <v>989.6487598248956</v>
@@ -36376,10 +36376,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36525,10 +36525,10 @@
         <v>347.6333793934838</v>
       </c>
       <c r="N25" t="n">
-        <v>344.85694616754</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>434.6961716811563</v>
+        <v>275.6377970070071</v>
       </c>
       <c r="K26" t="n">
-        <v>449.315914156023</v>
+        <v>464.3606345170046</v>
       </c>
       <c r="L26" t="n">
-        <v>594.6906296686918</v>
+        <v>613.3549356216658</v>
       </c>
       <c r="M26" t="n">
-        <v>693.6972408751079</v>
+        <v>714.4648774745417</v>
       </c>
       <c r="N26" t="n">
-        <v>709.5823999744757</v>
+        <v>730.6860786459838</v>
       </c>
       <c r="O26" t="n">
-        <v>656.5685780519773</v>
+        <v>676.4961833916103</v>
       </c>
       <c r="P26" t="n">
-        <v>525.5165952993245</v>
+        <v>695.0400669825652</v>
       </c>
       <c r="Q26" t="n">
-        <v>415.7364921632699</v>
+        <v>358.7538494294769</v>
       </c>
       <c r="R26" t="n">
-        <v>180.6994376109275</v>
+        <v>122.4124599939754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>139.1813500985075</v>
+        <v>145.1600573702395</v>
       </c>
       <c r="K27" t="n">
-        <v>316.8273631965439</v>
+        <v>327.0459261984172</v>
       </c>
       <c r="L27" t="n">
-        <v>239.6294337060046</v>
+        <v>178.281999971857</v>
       </c>
       <c r="M27" t="n">
-        <v>571.2922827635632</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>600.9668763386558</v>
+        <v>617.4253212811575</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>542.3793075703203</v>
       </c>
       <c r="P27" t="n">
-        <v>403.694884187831</v>
+        <v>415.778861588911</v>
       </c>
       <c r="Q27" t="n">
-        <v>219.435908462311</v>
+        <v>227.5137273396373</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>33.06796436278248</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.53257698556115</v>
+        <v>77.2834257930883</v>
       </c>
       <c r="K28" t="n">
-        <v>251.9849322150776</v>
+        <v>258.1487290210692</v>
       </c>
       <c r="L28" t="n">
-        <v>378.5412655393355</v>
+        <v>386.4288033300388</v>
       </c>
       <c r="M28" t="n">
-        <v>409.6127528412053</v>
+        <v>417.9290555270984</v>
       </c>
       <c r="N28" t="n">
-        <v>405.3625886453859</v>
+        <v>413.481148241259</v>
       </c>
       <c r="O28" t="n">
-        <v>358.2398841729486</v>
+        <v>365.7386879866855</v>
       </c>
       <c r="P28" t="n">
-        <v>282.7778438846851</v>
+        <v>289.1943660057268</v>
       </c>
       <c r="Q28" t="n">
-        <v>111.5028628391732</v>
+        <v>115.945330161551</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>434.6961716811563</v>
+        <v>275.6377970070071</v>
       </c>
       <c r="K29" t="n">
-        <v>449.315914156023</v>
+        <v>464.3606345170046</v>
       </c>
       <c r="L29" t="n">
-        <v>594.6906296686918</v>
+        <v>613.3549356216658</v>
       </c>
       <c r="M29" t="n">
-        <v>693.6972408751079</v>
+        <v>714.4648774745417</v>
       </c>
       <c r="N29" t="n">
-        <v>709.5823999744757</v>
+        <v>730.6860786459838</v>
       </c>
       <c r="O29" t="n">
-        <v>656.5685780519773</v>
+        <v>676.4961833916103</v>
       </c>
       <c r="P29" t="n">
-        <v>525.5165952993245</v>
+        <v>695.0400669825652</v>
       </c>
       <c r="Q29" t="n">
-        <v>415.7364921632699</v>
+        <v>358.7538494294769</v>
       </c>
       <c r="R29" t="n">
-        <v>180.6994376109275</v>
+        <v>122.4124599939754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>327.0459261984172</v>
       </c>
       <c r="L30" t="n">
-        <v>472.8039343541006</v>
+        <v>486.5440533591184</v>
       </c>
       <c r="M30" t="n">
-        <v>571.2922827635632</v>
+        <v>587.3263535628739</v>
       </c>
       <c r="N30" t="n">
-        <v>600.9668763386558</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>527.3230458661449</v>
+        <v>409.3762792715818</v>
       </c>
       <c r="P30" t="n">
-        <v>318.6419594309529</v>
+        <v>415.778861588911</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.5137273396373</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>33.06796436278248</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.53257698556115</v>
+        <v>77.2834257930883</v>
       </c>
       <c r="K31" t="n">
-        <v>251.9849322150776</v>
+        <v>258.1487290210692</v>
       </c>
       <c r="L31" t="n">
-        <v>378.5412655393355</v>
+        <v>386.4288033300388</v>
       </c>
       <c r="M31" t="n">
-        <v>409.6127528412053</v>
+        <v>417.9290555270984</v>
       </c>
       <c r="N31" t="n">
-        <v>405.3625886453859</v>
+        <v>413.481148241259</v>
       </c>
       <c r="O31" t="n">
-        <v>358.2398841729486</v>
+        <v>365.7386879866855</v>
       </c>
       <c r="P31" t="n">
-        <v>282.7778438846851</v>
+        <v>289.1943660057268</v>
       </c>
       <c r="Q31" t="n">
-        <v>111.5028628391732</v>
+        <v>115.945330161551</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>434.6961716811563</v>
+        <v>275.6377970070071</v>
       </c>
       <c r="K32" t="n">
-        <v>449.315914156023</v>
+        <v>464.3606345170046</v>
       </c>
       <c r="L32" t="n">
-        <v>594.6906296686918</v>
+        <v>613.3549356216658</v>
       </c>
       <c r="M32" t="n">
-        <v>693.6972408751079</v>
+        <v>714.4648774745417</v>
       </c>
       <c r="N32" t="n">
-        <v>709.5823999744757</v>
+        <v>730.6860786459838</v>
       </c>
       <c r="O32" t="n">
-        <v>656.5685780519773</v>
+        <v>676.4961833916103</v>
       </c>
       <c r="P32" t="n">
-        <v>525.5165952993245</v>
+        <v>695.0400669825652</v>
       </c>
       <c r="Q32" t="n">
-        <v>415.7364921632699</v>
+        <v>358.7538494294769</v>
       </c>
       <c r="R32" t="n">
-        <v>180.6994376109275</v>
+        <v>122.4124599939754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>139.1813500985075</v>
+        <v>145.1600573702395</v>
       </c>
       <c r="K33" t="n">
-        <v>316.8273631965439</v>
+        <v>327.0459261984172</v>
       </c>
       <c r="L33" t="n">
-        <v>472.8039343541006</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>571.2922827635632</v>
+        <v>178.281999971857</v>
       </c>
       <c r="N33" t="n">
-        <v>600.9668763386558</v>
+        <v>617.4253212811575</v>
       </c>
       <c r="O33" t="n">
-        <v>389.9562920020463</v>
+        <v>542.3793075703203</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>415.778861588911</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.5137273396373</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>33.06796436278248</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.53257698556115</v>
+        <v>77.2834257930883</v>
       </c>
       <c r="K34" t="n">
-        <v>251.9849322150776</v>
+        <v>258.1487290210692</v>
       </c>
       <c r="L34" t="n">
-        <v>378.5412655393355</v>
+        <v>386.4288033300388</v>
       </c>
       <c r="M34" t="n">
-        <v>409.6127528412053</v>
+        <v>417.9290555270984</v>
       </c>
       <c r="N34" t="n">
-        <v>405.3625886453859</v>
+        <v>413.481148241259</v>
       </c>
       <c r="O34" t="n">
-        <v>358.2398841729486</v>
+        <v>365.7386879866855</v>
       </c>
       <c r="P34" t="n">
-        <v>282.7778438846851</v>
+        <v>289.1943660057268</v>
       </c>
       <c r="Q34" t="n">
-        <v>111.5028628391732</v>
+        <v>115.945330161551</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>275.6377970070071</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>464.3606345170046</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>613.3549356216658</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>714.4648774745417</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>730.6860786459838</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>763.2954850859361</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>542.5243454152574</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>358.7538494294769</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136732</v>
+        <v>188.1288798669578</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>145.1600573702395</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>18.78387281115579</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>486.5440533591184</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>617.4253212811575</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>542.3793075703203</v>
       </c>
       <c r="P36" t="n">
-        <v>223.0469591689864</v>
+        <v>415.778861588911</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.5137273396373</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>33.06796436278248</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>77.2834257930883</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>258.1487290210692</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>386.4288033300388</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>417.9290555270984</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>413.481148241259</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>365.7386879866855</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>289.1943660057268</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>115.945330161551</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>275.6377970070071</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>464.3606345170046</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>613.3549356216658</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>714.4648774745417</v>
       </c>
       <c r="N38" t="n">
-        <v>796.0449487554599</v>
+        <v>730.6860786459838</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>676.4961833916103</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>542.5243454152574</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>511.2695709967849</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>122.4124599939754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>49.32163785977568</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>327.0459261984172</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>486.5440533591184</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>97.47969568539746</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>617.4253212811575</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>542.3793075703203</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>415.778861588911</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>77.2834257930883</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>258.1487290210692</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>386.4288033300388</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>417.9290555270984</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>413.481148241259</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>365.7386879866855</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>289.1943660057268</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>115.945330161551</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>333.6317139898107</v>
+        <v>275.6377970070071</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380626</v>
+        <v>464.3606345170046</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664393</v>
+        <v>613.3549356216658</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>714.4648774745417</v>
       </c>
       <c r="N41" t="n">
-        <v>744.73230092637</v>
+        <v>730.6860786459838</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870085</v>
+        <v>676.4961833916103</v>
       </c>
       <c r="P41" t="n">
-        <v>553.844392613483</v>
+        <v>542.5243454152574</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404112</v>
+        <v>511.2695709967849</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845842</v>
+        <v>122.4124599939754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>333.8472147104634</v>
+        <v>219.9101655470696</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946983</v>
+        <v>486.5440533591184</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>587.3263535628739</v>
       </c>
       <c r="N42" t="n">
-        <v>446.1632966924564</v>
+        <v>617.4253212811575</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>542.3793075703203</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>33.06796436278248</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066052</v>
+        <v>77.2834257930883</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642057</v>
+        <v>258.1487290210692</v>
       </c>
       <c r="L43" t="n">
-        <v>391.678604124378</v>
+        <v>386.4288033300388</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883428</v>
+        <v>417.9290555270984</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209161</v>
+        <v>413.481148241259</v>
       </c>
       <c r="O43" t="n">
-        <v>370.729754560636</v>
+        <v>365.7386879866855</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931359</v>
+        <v>289.1943660057268</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044799</v>
+        <v>115.945330161551</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>275.6377970070071</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>464.3606345170046</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>613.3549356216658</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>714.4648774745417</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>883.2018002132919</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>676.4961833916103</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>542.5243454152574</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>358.7538494294769</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>122.4124599939754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>145.1600573702395</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>327.0459261984172</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>208.3809676901407</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>587.3263535628739</v>
       </c>
       <c r="N45" t="n">
-        <v>611.5937738991437</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>542.3793075703203</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>415.778861588911</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>227.5137273396373</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>33.06796436278248</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295339</v>
+        <v>77.2834257930883</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>258.1487290210692</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>386.4288033300388</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>417.9290555270984</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>413.481148241259</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>365.7386879866855</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>289.1943660057268</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>115.945330161551</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
